--- a/artfynd/A 54601-2022.xlsx
+++ b/artfynd/A 54601-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY14"/>
+  <dimension ref="A1:AY18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2322,6 +2322,508 @@
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>111837758</v>
+      </c>
+      <c r="B15" t="n">
+        <v>90187</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2014</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Koralltaggsvamp</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Hericium coralloides</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Pers.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Brotorp, hyggeskant, Sm</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>575673.5681218</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6404513.458820416</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Västervik</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Hallingeberg</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>På asplåga.</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>111837705</v>
+      </c>
+      <c r="B16" t="n">
+        <v>90662</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>4363</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Zontaggsvamp</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Hydnellum concrescens</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Pers.) Banker</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Brotorp, Långsjön, Sm</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>575795.3141537429</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6404518.948622406</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Västervik</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Hallingeberg</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>111837675</v>
+      </c>
+      <c r="B17" t="n">
+        <v>103288</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>221144</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Grönpyrola</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Pyrola chlorantha</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Brotorp, Långsjön, Sm</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>575781.9606960951</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6404546.96767282</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Västervik</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Hallingeberg</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>111837741</v>
+      </c>
+      <c r="B18" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Brotorp, hyggeskant, Sm</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>575653.9215098171</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6404506.688862759</v>
+      </c>
+      <c r="S18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Västervik</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Hallingeberg</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 54601-2022.xlsx
+++ b/artfynd/A 54601-2022.xlsx
@@ -2324,10 +2324,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111837758</v>
+        <v>111837705</v>
       </c>
       <c r="B15" t="n">
-        <v>90187</v>
+        <v>90662</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2336,30 +2336,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2014</v>
+        <v>4363</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Koralltaggsvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hericium coralloides</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Pers.</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2371,14 +2371,14 @@
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Brotorp, hyggeskant, Sm</t>
+          <t>Brotorp, Långsjön, Sm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>575673.5681218</v>
+        <v>575795.3141537429</v>
       </c>
       <c r="R15" t="n">
-        <v>6404513.458820416</v>
+        <v>6404518.948622406</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2421,11 +2421,6 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>På asplåga.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2453,10 +2448,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111837705</v>
+        <v>111837741</v>
       </c>
       <c r="B16" t="n">
-        <v>90662</v>
+        <v>90658</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2465,30 +2460,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4363</v>
+        <v>4361</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2500,14 +2495,14 @@
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Brotorp, Långsjön, Sm</t>
+          <t>Brotorp, hyggeskant, Sm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>575795.3141537429</v>
+        <v>575653.9215098171</v>
       </c>
       <c r="R16" t="n">
-        <v>6404518.948622406</v>
+        <v>6404506.688862759</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2702,10 +2697,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111837741</v>
+        <v>111837758</v>
       </c>
       <c r="B18" t="n">
-        <v>90658</v>
+        <v>90187</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2718,26 +2713,26 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4361</v>
+        <v>2014</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Koralltaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hericium coralloides</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) Pers.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2753,10 +2748,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>575653.9215098171</v>
+        <v>575673.5681218</v>
       </c>
       <c r="R18" t="n">
-        <v>6404506.688862759</v>
+        <v>6404513.458820416</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2799,6 +2794,11 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>På asplåga.</t>
         </is>
       </c>
       <c r="AD18" t="b">

--- a/artfynd/A 54601-2022.xlsx
+++ b/artfynd/A 54601-2022.xlsx
@@ -2324,10 +2324,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111837705</v>
+        <v>111837758</v>
       </c>
       <c r="B15" t="n">
-        <v>90662</v>
+        <v>90187</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2336,30 +2336,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4363</v>
+        <v>2014</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Koralltaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Hericium coralloides</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Scop.:Fr.) Pers.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2371,14 +2371,14 @@
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Brotorp, Långsjön, Sm</t>
+          <t>Brotorp, hyggeskant, Sm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>575795.3141537429</v>
+        <v>575673.5681218</v>
       </c>
       <c r="R15" t="n">
-        <v>6404518.948622406</v>
+        <v>6404513.458820416</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2421,6 +2421,11 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>På asplåga.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2448,10 +2453,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111837741</v>
+        <v>111837675</v>
       </c>
       <c r="B16" t="n">
-        <v>90658</v>
+        <v>103288</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2460,49 +2465,50 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4361</v>
+        <v>221144</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Brotorp, hyggeskant, Sm</t>
+          <t>Brotorp, Långsjön, Sm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>575653.9215098171</v>
+        <v>575781.9606960951</v>
       </c>
       <c r="R16" t="n">
-        <v>6404506.688862759</v>
+        <v>6404546.96767282</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2572,10 +2578,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111837675</v>
+        <v>111837705</v>
       </c>
       <c r="B17" t="n">
-        <v>103288</v>
+        <v>90662</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2588,21 +2594,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>221144</v>
+        <v>4363</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2612,11 +2618,10 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2624,10 +2629,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>575781.9606960951</v>
+        <v>575795.3141537429</v>
       </c>
       <c r="R17" t="n">
-        <v>6404546.96767282</v>
+        <v>6404518.948622406</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2697,10 +2702,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111837758</v>
+        <v>111837741</v>
       </c>
       <c r="B18" t="n">
-        <v>90187</v>
+        <v>90658</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2713,26 +2718,26 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2014</v>
+        <v>4361</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Koralltaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hericium coralloides</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Pers.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2748,10 +2753,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>575673.5681218</v>
+        <v>575653.9215098171</v>
       </c>
       <c r="R18" t="n">
-        <v>6404513.458820416</v>
+        <v>6404506.688862759</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2794,11 +2799,6 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>På asplåga.</t>
         </is>
       </c>
       <c r="AD18" t="b">

--- a/artfynd/A 54601-2022.xlsx
+++ b/artfynd/A 54601-2022.xlsx
@@ -2453,10 +2453,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111837675</v>
+        <v>111837705</v>
       </c>
       <c r="B16" t="n">
-        <v>103288</v>
+        <v>90662</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2469,21 +2469,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>221144</v>
+        <v>4363</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -2493,11 +2493,10 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2505,10 +2504,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>575781.9606960951</v>
+        <v>575795.3141537429</v>
       </c>
       <c r="R16" t="n">
-        <v>6404546.96767282</v>
+        <v>6404518.948622406</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2578,10 +2577,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111837705</v>
+        <v>111837675</v>
       </c>
       <c r="B17" t="n">
-        <v>90662</v>
+        <v>103288</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2594,21 +2593,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4363</v>
+        <v>221144</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2618,10 +2617,11 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2629,10 +2629,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>575795.3141537429</v>
+        <v>575781.9606960951</v>
       </c>
       <c r="R17" t="n">
-        <v>6404518.948622406</v>
+        <v>6404546.96767282</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>

--- a/artfynd/A 54601-2022.xlsx
+++ b/artfynd/A 54601-2022.xlsx
@@ -2324,10 +2324,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111837758</v>
+        <v>111837675</v>
       </c>
       <c r="B15" t="n">
-        <v>90187</v>
+        <v>103288</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2336,49 +2336,50 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2014</v>
+        <v>221144</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Koralltaggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hericium coralloides</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Pers.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Brotorp, hyggeskant, Sm</t>
+          <t>Brotorp, Långsjön, Sm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>575673.5681218</v>
+        <v>575781.9606960951</v>
       </c>
       <c r="R15" t="n">
-        <v>6404513.458820416</v>
+        <v>6404546.96767282</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2421,11 +2422,6 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>På asplåga.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2453,10 +2449,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111837705</v>
+        <v>111837758</v>
       </c>
       <c r="B16" t="n">
-        <v>90662</v>
+        <v>90187</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2465,30 +2461,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4363</v>
+        <v>2014</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Koralltaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Hericium coralloides</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Scop.:Fr.) Pers.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2500,14 +2496,14 @@
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Brotorp, Långsjön, Sm</t>
+          <t>Brotorp, hyggeskant, Sm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>575795.3141537429</v>
+        <v>575673.5681218</v>
       </c>
       <c r="R16" t="n">
-        <v>6404518.948622406</v>
+        <v>6404513.458820416</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2550,6 +2546,11 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>På asplåga.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2577,10 +2578,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111837675</v>
+        <v>111837741</v>
       </c>
       <c r="B17" t="n">
-        <v>103288</v>
+        <v>90658</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2589,50 +2590,49 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>221144</v>
+        <v>4361</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Brotorp, Långsjön, Sm</t>
+          <t>Brotorp, hyggeskant, Sm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>575781.9606960951</v>
+        <v>575653.9215098171</v>
       </c>
       <c r="R17" t="n">
-        <v>6404546.96767282</v>
+        <v>6404506.688862759</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2702,10 +2702,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111837741</v>
+        <v>111837705</v>
       </c>
       <c r="B18" t="n">
-        <v>90658</v>
+        <v>90662</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2714,30 +2714,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4361</v>
+        <v>4363</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2749,14 +2749,14 @@
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Brotorp, hyggeskant, Sm</t>
+          <t>Brotorp, Långsjön, Sm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>575653.9215098171</v>
+        <v>575795.3141537429</v>
       </c>
       <c r="R18" t="n">
-        <v>6404506.688862759</v>
+        <v>6404518.948622406</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>

--- a/artfynd/A 54601-2022.xlsx
+++ b/artfynd/A 54601-2022.xlsx
@@ -2324,10 +2324,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111837675</v>
+        <v>111837758</v>
       </c>
       <c r="B15" t="n">
-        <v>103288</v>
+        <v>90187</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2336,50 +2336,49 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>221144</v>
+        <v>2014</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Koralltaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hericium coralloides</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Scop.:Fr.) Pers.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Brotorp, Långsjön, Sm</t>
+          <t>Brotorp, hyggeskant, Sm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>575781.9606960951</v>
+        <v>575673.5681218</v>
       </c>
       <c r="R15" t="n">
-        <v>6404546.96767282</v>
+        <v>6404513.458820416</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2422,6 +2421,11 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>På asplåga.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2449,10 +2453,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111837758</v>
+        <v>111837705</v>
       </c>
       <c r="B16" t="n">
-        <v>90187</v>
+        <v>90662</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2461,30 +2465,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2014</v>
+        <v>4363</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Koralltaggsvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hericium coralloides</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Pers.</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2496,14 +2500,14 @@
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Brotorp, hyggeskant, Sm</t>
+          <t>Brotorp, Långsjön, Sm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>575673.5681218</v>
+        <v>575795.3141537429</v>
       </c>
       <c r="R16" t="n">
-        <v>6404513.458820416</v>
+        <v>6404518.948622406</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2546,11 +2550,6 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>På asplåga.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2578,10 +2577,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111837741</v>
+        <v>111837675</v>
       </c>
       <c r="B17" t="n">
-        <v>90658</v>
+        <v>103288</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2590,49 +2589,50 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4361</v>
+        <v>221144</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Brotorp, hyggeskant, Sm</t>
+          <t>Brotorp, Långsjön, Sm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>575653.9215098171</v>
+        <v>575781.9606960951</v>
       </c>
       <c r="R17" t="n">
-        <v>6404506.688862759</v>
+        <v>6404546.96767282</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2702,10 +2702,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111837705</v>
+        <v>111837741</v>
       </c>
       <c r="B18" t="n">
-        <v>90662</v>
+        <v>90658</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2714,30 +2714,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4363</v>
+        <v>4361</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2749,14 +2749,14 @@
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Brotorp, Långsjön, Sm</t>
+          <t>Brotorp, hyggeskant, Sm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>575795.3141537429</v>
+        <v>575653.9215098171</v>
       </c>
       <c r="R18" t="n">
-        <v>6404518.948622406</v>
+        <v>6404506.688862759</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>

--- a/artfynd/A 54601-2022.xlsx
+++ b/artfynd/A 54601-2022.xlsx
@@ -2453,10 +2453,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111837705</v>
+        <v>111837675</v>
       </c>
       <c r="B16" t="n">
-        <v>90662</v>
+        <v>103288</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2469,21 +2469,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4363</v>
+        <v>221144</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -2493,10 +2493,11 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2504,10 +2505,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>575795.3141537429</v>
+        <v>575781.9606960951</v>
       </c>
       <c r="R16" t="n">
-        <v>6404518.948622406</v>
+        <v>6404546.96767282</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2577,10 +2578,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111837675</v>
+        <v>111837741</v>
       </c>
       <c r="B17" t="n">
-        <v>103288</v>
+        <v>90658</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2589,50 +2590,49 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>221144</v>
+        <v>4361</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Brotorp, Långsjön, Sm</t>
+          <t>Brotorp, hyggeskant, Sm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>575781.9606960951</v>
+        <v>575653.9215098171</v>
       </c>
       <c r="R17" t="n">
-        <v>6404546.96767282</v>
+        <v>6404506.688862759</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2702,10 +2702,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111837741</v>
+        <v>111837705</v>
       </c>
       <c r="B18" t="n">
-        <v>90658</v>
+        <v>90662</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2714,30 +2714,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4361</v>
+        <v>4363</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2749,14 +2749,14 @@
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Brotorp, hyggeskant, Sm</t>
+          <t>Brotorp, Långsjön, Sm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>575653.9215098171</v>
+        <v>575795.3141537429</v>
       </c>
       <c r="R18" t="n">
-        <v>6404506.688862759</v>
+        <v>6404518.948622406</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>

--- a/artfynd/A 54601-2022.xlsx
+++ b/artfynd/A 54601-2022.xlsx
@@ -2453,10 +2453,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111837675</v>
+        <v>111837741</v>
       </c>
       <c r="B16" t="n">
-        <v>103288</v>
+        <v>90658</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2465,50 +2465,49 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>221144</v>
+        <v>4361</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Brotorp, Långsjön, Sm</t>
+          <t>Brotorp, hyggeskant, Sm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>575781.9606960951</v>
+        <v>575653.9215098171</v>
       </c>
       <c r="R16" t="n">
-        <v>6404546.96767282</v>
+        <v>6404506.688862759</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2578,10 +2577,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111837741</v>
+        <v>111837675</v>
       </c>
       <c r="B17" t="n">
-        <v>90658</v>
+        <v>103288</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2590,49 +2589,50 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4361</v>
+        <v>221144</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Brotorp, hyggeskant, Sm</t>
+          <t>Brotorp, Långsjön, Sm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>575653.9215098171</v>
+        <v>575781.9606960951</v>
       </c>
       <c r="R17" t="n">
-        <v>6404506.688862759</v>
+        <v>6404546.96767282</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>

--- a/artfynd/A 54601-2022.xlsx
+++ b/artfynd/A 54601-2022.xlsx
@@ -2324,10 +2324,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111837758</v>
+        <v>111837675</v>
       </c>
       <c r="B15" t="n">
-        <v>90187</v>
+        <v>103288</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2336,49 +2336,50 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2014</v>
+        <v>221144</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Koralltaggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hericium coralloides</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Pers.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Brotorp, hyggeskant, Sm</t>
+          <t>Brotorp, Långsjön, Sm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>575673.5681218</v>
+        <v>575781.9606960951</v>
       </c>
       <c r="R15" t="n">
-        <v>6404513.458820416</v>
+        <v>6404546.96767282</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2421,11 +2422,6 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>På asplåga.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2577,10 +2573,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111837675</v>
+        <v>111837705</v>
       </c>
       <c r="B17" t="n">
-        <v>103288</v>
+        <v>90662</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2593,21 +2589,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>221144</v>
+        <v>4363</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2617,11 +2613,10 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2629,10 +2624,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>575781.9606960951</v>
+        <v>575795.3141537429</v>
       </c>
       <c r="R17" t="n">
-        <v>6404546.96767282</v>
+        <v>6404518.948622406</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2702,10 +2697,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111837705</v>
+        <v>111837758</v>
       </c>
       <c r="B18" t="n">
-        <v>90662</v>
+        <v>90187</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2714,30 +2709,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4363</v>
+        <v>2014</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Koralltaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Hericium coralloides</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Scop.:Fr.) Pers.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2749,14 +2744,14 @@
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Brotorp, Långsjön, Sm</t>
+          <t>Brotorp, hyggeskant, Sm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>575795.3141537429</v>
+        <v>575673.5681218</v>
       </c>
       <c r="R18" t="n">
-        <v>6404518.948622406</v>
+        <v>6404513.458820416</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2799,6 +2794,11 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>På asplåga.</t>
         </is>
       </c>
       <c r="AD18" t="b">

--- a/artfynd/A 54601-2022.xlsx
+++ b/artfynd/A 54601-2022.xlsx
@@ -2573,10 +2573,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111837705</v>
+        <v>111837758</v>
       </c>
       <c r="B17" t="n">
-        <v>90662</v>
+        <v>90187</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2585,30 +2585,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4363</v>
+        <v>2014</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Koralltaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Hericium coralloides</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Scop.:Fr.) Pers.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2620,14 +2620,14 @@
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Brotorp, Långsjön, Sm</t>
+          <t>Brotorp, hyggeskant, Sm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>575795.3141537429</v>
+        <v>575673.5681218</v>
       </c>
       <c r="R17" t="n">
-        <v>6404518.948622406</v>
+        <v>6404513.458820416</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2670,6 +2670,11 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>På asplåga.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2697,10 +2702,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111837758</v>
+        <v>111837705</v>
       </c>
       <c r="B18" t="n">
-        <v>90187</v>
+        <v>90662</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2709,30 +2714,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2014</v>
+        <v>4363</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Koralltaggsvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hericium coralloides</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Pers.</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2744,14 +2749,14 @@
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Brotorp, hyggeskant, Sm</t>
+          <t>Brotorp, Långsjön, Sm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>575673.5681218</v>
+        <v>575795.3141537429</v>
       </c>
       <c r="R18" t="n">
-        <v>6404513.458820416</v>
+        <v>6404518.948622406</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2794,11 +2799,6 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>På asplåga.</t>
         </is>
       </c>
       <c r="AD18" t="b">

--- a/artfynd/A 54601-2022.xlsx
+++ b/artfynd/A 54601-2022.xlsx
@@ -2324,10 +2324,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111837675</v>
+        <v>111837705</v>
       </c>
       <c r="B15" t="n">
-        <v>103288</v>
+        <v>90662</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2340,21 +2340,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>221144</v>
+        <v>4363</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -2364,11 +2364,10 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2376,10 +2375,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>575781.9606960951</v>
+        <v>575795</v>
       </c>
       <c r="R15" t="n">
-        <v>6404546.96767282</v>
+        <v>6404519</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2409,19 +2408,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2500,10 +2489,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>575653.9215098171</v>
+        <v>575654</v>
       </c>
       <c r="R16" t="n">
-        <v>6404506.688862759</v>
+        <v>6404507</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2533,19 +2522,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2573,10 +2552,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111837758</v>
+        <v>111837675</v>
       </c>
       <c r="B17" t="n">
-        <v>90187</v>
+        <v>103288</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2585,49 +2564,50 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2014</v>
+        <v>221144</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Koralltaggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hericium coralloides</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Pers.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Brotorp, hyggeskant, Sm</t>
+          <t>Brotorp, Långsjön, Sm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>575673.5681218</v>
+        <v>575782</v>
       </c>
       <c r="R17" t="n">
-        <v>6404513.458820416</v>
+        <v>6404547</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2657,24 +2637,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>På asplåga.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2702,10 +2667,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111837705</v>
+        <v>111837758</v>
       </c>
       <c r="B18" t="n">
-        <v>90662</v>
+        <v>90187</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2714,30 +2679,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4363</v>
+        <v>2014</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Koralltaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Hericium coralloides</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Scop.:Fr.) Pers.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2749,14 +2714,14 @@
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Brotorp, Långsjön, Sm</t>
+          <t>Brotorp, hyggeskant, Sm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>575795.3141537429</v>
+        <v>575674</v>
       </c>
       <c r="R18" t="n">
-        <v>6404518.948622406</v>
+        <v>6404513</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2786,19 +2751,14 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>På asplåga.</t>
         </is>
       </c>
       <c r="AD18" t="b">

--- a/artfynd/A 54601-2022.xlsx
+++ b/artfynd/A 54601-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY18"/>
+  <dimension ref="A1:AY21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2324,10 +2324,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111837705</v>
+        <v>111837675</v>
       </c>
       <c r="B15" t="n">
-        <v>90662</v>
+        <v>103288</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2340,21 +2340,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4363</v>
+        <v>221144</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -2364,10 +2364,11 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2375,10 +2376,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>575795</v>
+        <v>575782</v>
       </c>
       <c r="R15" t="n">
-        <v>6404519</v>
+        <v>6404547</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2438,10 +2439,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111837741</v>
+        <v>111837705</v>
       </c>
       <c r="B16" t="n">
-        <v>90658</v>
+        <v>90662</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2450,30 +2451,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4361</v>
+        <v>4363</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2485,14 +2486,14 @@
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Brotorp, hyggeskant, Sm</t>
+          <t>Brotorp, Långsjön, Sm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>575654</v>
+        <v>575795</v>
       </c>
       <c r="R16" t="n">
-        <v>6404507</v>
+        <v>6404519</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2552,10 +2553,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111837675</v>
+        <v>111837758</v>
       </c>
       <c r="B17" t="n">
-        <v>103288</v>
+        <v>90187</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2564,50 +2565,49 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>221144</v>
+        <v>2014</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Koralltaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hericium coralloides</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Scop.:Fr.) Pers.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Brotorp, Långsjön, Sm</t>
+          <t>Brotorp, hyggeskant, Sm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>575782</v>
+        <v>575674</v>
       </c>
       <c r="R17" t="n">
-        <v>6404547</v>
+        <v>6404513</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2640,6 +2640,11 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>På asplåga.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2667,10 +2672,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111837758</v>
+        <v>111837741</v>
       </c>
       <c r="B18" t="n">
-        <v>90187</v>
+        <v>90658</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2683,26 +2688,26 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2014</v>
+        <v>4361</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Koralltaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hericium coralloides</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Pers.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2718,10 +2723,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>575674</v>
+        <v>575654</v>
       </c>
       <c r="R18" t="n">
-        <v>6404513</v>
+        <v>6404507</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2756,11 +2761,6 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>På asplåga.</t>
-        </is>
-      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
@@ -2783,6 +2783,350 @@
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>112360063</v>
+      </c>
+      <c r="B19" t="n">
+        <v>90844</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>5449</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Svart taggsvamp</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Phellodon niger</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Brotorp, Hummelstad, Sm</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>575771</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6404602</v>
+      </c>
+      <c r="S19" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Västervik</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Hallingeberg</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>112360070</v>
+      </c>
+      <c r="B20" t="n">
+        <v>103755</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>221144</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Grönpyrola</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Pyrola chlorantha</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Brotorp, Hummelstad, Sm</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>575771</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6404602</v>
+      </c>
+      <c r="S20" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Västervik</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Hallingeberg</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Få</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>112360057</v>
+      </c>
+      <c r="B21" t="n">
+        <v>90800</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Brotorp, Hummelstad, Sm</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>575771</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6404602</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Västervik</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Hallingeberg</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 54601-2022.xlsx
+++ b/artfynd/A 54601-2022.xlsx
@@ -2789,7 +2789,7 @@
         <v>112360063</v>
       </c>
       <c r="B19" t="n">
-        <v>90844</v>
+        <v>90858</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>112360070</v>
       </c>
       <c r="B20" t="n">
-        <v>103755</v>
+        <v>103781</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>112360057</v>
       </c>
       <c r="B21" t="n">
-        <v>90800</v>
+        <v>90814</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
